--- a/N 8813 UG Susiono.xlsx
+++ b/N 8813 UG Susiono.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - N 8813 UG - Susiono</t>
+  </si>
+  <si>
+    <t>21/03/2024</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1297,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,8 +1390,8 @@
         <v>27087</v>
       </c>
       <c r="F6" s="11">
-        <f>10000+E6</f>
-        <v>37087</v>
+        <f>5000+E6</f>
+        <v>32087</v>
       </c>
       <c r="G6" s="6">
         <v>45475</v>
@@ -1398,12 +1401,25 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11">
+        <v>32529</v>
+      </c>
+      <c r="F7" s="11">
+        <f>5000+E7</f>
+        <v>37529</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
